--- a/sheets/faq_kb.xlsx
+++ b/sheets/faq_kb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C30B89F-2CF9-2046-9953-883FFEBA5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11F2D7-A98B-2043-A449-D0BD447F2125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="27680" windowHeight="16840" xr2:uid="{4F619692-AAC7-B641-BADE-33997FBE73EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>How do I apply online for admission to Aarhus University?</t>
   </si>
@@ -171,6 +171,72 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>What is a signature page?</t>
+  </si>
+  <si>
+    <t>The signature page is the final step to verify you as an applicant.
+Your application is not complete until Aarhus University receives your signed signature page through the university’s web form.
+You must submit one signature page for each programme you apply for at Aarhus University.
+Be sure to check the deadline for submitting these pages.</t>
+  </si>
+  <si>
+    <t>No.
+If you complete your application using MitID, you do not need a signature page, because you are already verified through your MitID login. Applicants using MitID do not send in additional signature documentation.</t>
+  </si>
+  <si>
+    <t>Do I need a signature page if I apply with a Danish MitID?</t>
+  </si>
+  <si>
+    <t>How does the Danish admission system (KOT) work?</t>
+  </si>
+  <si>
+    <t>Aarhus University and all other higher education institutions in Denmark use a shared application system called the Coordinated Enrolment System (KOT).
+KOT allows you to:
+Apply for up to eight different Bachelor’s degree programmes
+Be admitted to the highest-priority programme for which you qualify
+Be admitted to only one of the programmes you apply for
+You can find more information about the general Danish admission system on the relevant information pages.</t>
+  </si>
+  <si>
+    <t>Quota 1 and quota 2 is how we allocate student places in Denmark.
+Quota 1 admissions are allocated according to the grade point average of your upper secondary education.
+Quota 2 admissions are allocated according to various selection criteria.
+Even though the two quotas have different selection criteria, they are equally good.</t>
+  </si>
+  <si>
+    <t>What is quota 1 and quota 2?</t>
+  </si>
+  <si>
+    <t>For both quotas you must have a qualifying entry examination and fulfil the specific admission requirements for your desired programme(s).
+You do not have the option to choose which quota to apply for in your application. All international applicants are automatically assessed in quota 2. Depending on your qualifying entry examination your application may also be assessed in quota 1.</t>
+  </si>
+  <si>
+    <t>Do I have to choose between quota 1 or quota 2?</t>
+  </si>
+  <si>
+    <t>Does it affect my studies if I am accepted through quota 1 or quota 2?</t>
+  </si>
+  <si>
+    <t>No. Quota 1 and quota 2 is solely a part of the admission process and has no effect on your studies after you have been admitted. If you are offered a student place you do not know whether your application has been assessed in quota 1 or quota 2.</t>
+  </si>
+  <si>
+    <t>What is the Quota 1 selection criteria</t>
+  </si>
+  <si>
+    <t>The assessment in quota 1 is based on the first completed qualifying examination and the principle of descending order of grade point average (GPA).
+This means that applicants with the highest GPA will be admitted until there are no more available student places. The last admitted applicant’s GPA is the GPA cut-off for each programme. This can differ from year to year depending on number of student places and the qualifications of the applicants. You can find the GPA cut-off on the programmes’ websites. The GPA cut-off is first known when the admission process is completed on 28 July.
+You cannot improve the GPA from your first qualifying examination. However, you are welcome to take supplementary courses in order to fulfil the admission requirements. The grades from your supplementary courses will not be used in the quota 1 assessment.</t>
+  </si>
+  <si>
+    <t>What is the Quota 2 selection criteria</t>
+  </si>
+  <si>
+    <t>The quota 2 assessment is an overall assessment based on the following criteria for our English taught programmes:
+Applicants’ grade point average of particularly relevant quota 2 subjects
+Applicants’ relevant qualifications
+All qualifications must be completed and documented no later than 15 March which is the deadline</t>
   </si>
 </sst>
 </file>
@@ -206,10 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDB85C5-259A-7A4B-86C9-EC58FB01D022}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,6 +747,94 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sheets/faq_kb.xlsx
+++ b/sheets/faq_kb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11F2D7-A98B-2043-A449-D0BD447F2125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70EF9CE-AF76-2646-BE19-162584662BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="27680" windowHeight="16840" xr2:uid="{4F619692-AAC7-B641-BADE-33997FBE73EB}"/>
   </bookViews>
@@ -110,6 +110,101 @@
     <t>What is a qualifying entry examination?</t>
   </si>
   <si>
+    <t>What are the specific admission requirements?</t>
+  </si>
+  <si>
+    <t>In addition to a qualifying examination, you must have certain upper secondary subjects at specific levels.
+These can be part of your qualifying exam or added through supplementary courses.</t>
+  </si>
+  <si>
+    <t>Do my subjects need to be passed?</t>
+  </si>
+  <si>
+    <t>Yes. You must have received a passing grade in each required upper secondary subject level.
+This applies even if the subject was part of your qualifying examination. Grades cannot be rounded up to meet the pass requirement.</t>
+  </si>
+  <si>
+    <t>Can I take supplementary courses to meet admission requirements?</t>
+  </si>
+  <si>
+    <t>How are international subject levels assessed?</t>
+  </si>
+  <si>
+    <t>Subject levels from international entry examinations are compared to those in the Danish upper secondary school system.
+This comparison is partly based on the number of teaching hours you have completed in each subject.
+You must therefore submit documentation from your school stating how many 60-minute lessons you received in relevant subjects over the last three years of upper secondary school.
+Please also remember to meet Aarhus University’s specific language requirements for all Bachelor’s programmes.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>What is a signature page?</t>
+  </si>
+  <si>
+    <t>The signature page is the final step to verify you as an applicant.
+Your application is not complete until Aarhus University receives your signed signature page through the university’s web form.
+You must submit one signature page for each programme you apply for at Aarhus University.
+Be sure to check the deadline for submitting these pages.</t>
+  </si>
+  <si>
+    <t>No.
+If you complete your application using MitID, you do not need a signature page, because you are already verified through your MitID login. Applicants using MitID do not send in additional signature documentation.</t>
+  </si>
+  <si>
+    <t>Do I need a signature page if I apply with a Danish MitID?</t>
+  </si>
+  <si>
+    <t>How does the Danish admission system (KOT) work?</t>
+  </si>
+  <si>
+    <t>Aarhus University and all other higher education institutions in Denmark use a shared application system called the Coordinated Enrolment System (KOT).
+KOT allows you to:
+Apply for up to eight different Bachelor’s degree programmes
+Be admitted to the highest-priority programme for which you qualify
+Be admitted to only one of the programmes you apply for
+You can find more information about the general Danish admission system on the relevant information pages.</t>
+  </si>
+  <si>
+    <t>Quota 1 and quota 2 is how we allocate student places in Denmark.
+Quota 1 admissions are allocated according to the grade point average of your upper secondary education.
+Quota 2 admissions are allocated according to various selection criteria.
+Even though the two quotas have different selection criteria, they are equally good.</t>
+  </si>
+  <si>
+    <t>What is quota 1 and quota 2?</t>
+  </si>
+  <si>
+    <t>For both quotas you must have a qualifying entry examination and fulfil the specific admission requirements for your desired programme(s).
+You do not have the option to choose which quota to apply for in your application. All international applicants are automatically assessed in quota 2. Depending on your qualifying entry examination your application may also be assessed in quota 1.</t>
+  </si>
+  <si>
+    <t>Do I have to choose between quota 1 or quota 2?</t>
+  </si>
+  <si>
+    <t>Does it affect my studies if I am accepted through quota 1 or quota 2?</t>
+  </si>
+  <si>
+    <t>No. Quota 1 and quota 2 is solely a part of the admission process and has no effect on your studies after you have been admitted. If you are offered a student place you do not know whether your application has been assessed in quota 1 or quota 2.</t>
+  </si>
+  <si>
+    <t>What is the Quota 1 selection criteria</t>
+  </si>
+  <si>
+    <t>The assessment in quota 1 is based on the first completed qualifying examination and the principle of descending order of grade point average (GPA).
+This means that applicants with the highest GPA will be admitted until there are no more available student places. The last admitted applicant’s GPA is the GPA cut-off for each programme. This can differ from year to year depending on number of student places and the qualifications of the applicants. You can find the GPA cut-off on the programmes’ websites. The GPA cut-off is first known when the admission process is completed on 28 July.
+You cannot improve the GPA from your first qualifying examination. However, you are welcome to take supplementary courses in order to fulfil the admission requirements. The grades from your supplementary courses will not be used in the quota 1 assessment.</t>
+  </si>
+  <si>
+    <t>What is the Quota 2 selection criteria</t>
+  </si>
+  <si>
+    <t>The quota 2 assessment is an overall assessment based on the following criteria for our English taught programmes:
+Applicants’ grade point average of particularly relevant quota 2 subjects
+Applicants’ relevant qualifications
+All qualifications must be completed and documented no later than 15 March which is the deadline</t>
+  </si>
+  <si>
     <t>To apply to Aarhus University, you must hold a qualifying entry examination, which must be passed before 5 July in the year of application (unless you are a paying applicant).
 If you have more than one completed entry examination, only the GPA from your first exam can be used in quota 1.
 A retake exam cannot be used in quota 1, but additional exams may be used to fulfil specific admission requirements.
@@ -128,25 +223,7 @@
 Nordic, Faroese, or Greenlandic recognized exams
 A full list can be found at the Danish Agency for International Education website.
 Applicants with international qualifications should also review Aarhus University’s language requirements.
-If you are uncertain whether you meet the entry requirements, contact ba.admission@au.dk
 .</t>
-  </si>
-  <si>
-    <t>What are the specific admission requirements?</t>
-  </si>
-  <si>
-    <t>In addition to a qualifying examination, you must have certain upper secondary subjects at specific levels.
-These can be part of your qualifying exam or added through supplementary courses.</t>
-  </si>
-  <si>
-    <t>Do my subjects need to be passed?</t>
-  </si>
-  <si>
-    <t>Yes. You must have received a passing grade in each required upper secondary subject level.
-This applies even if the subject was part of your qualifying examination. Grades cannot be rounded up to meet the pass requirement.</t>
-  </si>
-  <si>
-    <t>Can I take supplementary courses to meet admission requirements?</t>
   </si>
   <si>
     <t>Yes. If you do not meet the specific admission requirements, you can supplement your exam.
@@ -156,87 +233,7 @@
 AS-level ≈ Danish B-level
 A-level ≈ Danish A-level
 Advanced Placement (AP) Tests issued by the College Board
-If you plan to take supplementary courses abroad, contact ba.admission@au.dk
- with a course description for assessment.
 In Denmark, you can also request an individual assessment of your qualifications at a VUC (Adult Education Centre).</t>
-  </si>
-  <si>
-    <t>How are international subject levels assessed?</t>
-  </si>
-  <si>
-    <t>Subject levels from international entry examinations are compared to those in the Danish upper secondary school system.
-This comparison is partly based on the number of teaching hours you have completed in each subject.
-You must therefore submit documentation from your school stating how many 60-minute lessons you received in relevant subjects over the last three years of upper secondary school.
-Please also remember to meet Aarhus University’s specific language requirements for all Bachelor’s programmes.</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>What is a signature page?</t>
-  </si>
-  <si>
-    <t>The signature page is the final step to verify you as an applicant.
-Your application is not complete until Aarhus University receives your signed signature page through the university’s web form.
-You must submit one signature page for each programme you apply for at Aarhus University.
-Be sure to check the deadline for submitting these pages.</t>
-  </si>
-  <si>
-    <t>No.
-If you complete your application using MitID, you do not need a signature page, because you are already verified through your MitID login. Applicants using MitID do not send in additional signature documentation.</t>
-  </si>
-  <si>
-    <t>Do I need a signature page if I apply with a Danish MitID?</t>
-  </si>
-  <si>
-    <t>How does the Danish admission system (KOT) work?</t>
-  </si>
-  <si>
-    <t>Aarhus University and all other higher education institutions in Denmark use a shared application system called the Coordinated Enrolment System (KOT).
-KOT allows you to:
-Apply for up to eight different Bachelor’s degree programmes
-Be admitted to the highest-priority programme for which you qualify
-Be admitted to only one of the programmes you apply for
-You can find more information about the general Danish admission system on the relevant information pages.</t>
-  </si>
-  <si>
-    <t>Quota 1 and quota 2 is how we allocate student places in Denmark.
-Quota 1 admissions are allocated according to the grade point average of your upper secondary education.
-Quota 2 admissions are allocated according to various selection criteria.
-Even though the two quotas have different selection criteria, they are equally good.</t>
-  </si>
-  <si>
-    <t>What is quota 1 and quota 2?</t>
-  </si>
-  <si>
-    <t>For both quotas you must have a qualifying entry examination and fulfil the specific admission requirements for your desired programme(s).
-You do not have the option to choose which quota to apply for in your application. All international applicants are automatically assessed in quota 2. Depending on your qualifying entry examination your application may also be assessed in quota 1.</t>
-  </si>
-  <si>
-    <t>Do I have to choose between quota 1 or quota 2?</t>
-  </si>
-  <si>
-    <t>Does it affect my studies if I am accepted through quota 1 or quota 2?</t>
-  </si>
-  <si>
-    <t>No. Quota 1 and quota 2 is solely a part of the admission process and has no effect on your studies after you have been admitted. If you are offered a student place you do not know whether your application has been assessed in quota 1 or quota 2.</t>
-  </si>
-  <si>
-    <t>What is the Quota 1 selection criteria</t>
-  </si>
-  <si>
-    <t>The assessment in quota 1 is based on the first completed qualifying examination and the principle of descending order of grade point average (GPA).
-This means that applicants with the highest GPA will be admitted until there are no more available student places. The last admitted applicant’s GPA is the GPA cut-off for each programme. This can differ from year to year depending on number of student places and the qualifications of the applicants. You can find the GPA cut-off on the programmes’ websites. The GPA cut-off is first known when the admission process is completed on 28 July.
-You cannot improve the GPA from your first qualifying examination. However, you are welcome to take supplementary courses in order to fulfil the admission requirements. The grades from your supplementary courses will not be used in the quota 1 assessment.</t>
-  </si>
-  <si>
-    <t>What is the Quota 2 selection criteria</t>
-  </si>
-  <si>
-    <t>The quota 2 assessment is an overall assessment based on the following criteria for our English taught programmes:
-Applicants’ grade point average of particularly relevant quota 2 subjects
-Applicants’ relevant qualifications
-All qualifications must be completed and documented no later than 15 March which is the deadline</t>
   </si>
 </sst>
 </file>
@@ -616,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDB85C5-259A-7A4B-86C9-EC58FB01D022}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -700,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -708,10 +705,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -719,21 +716,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="289" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -741,10 +738,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -752,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -763,10 +760,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="221" x14ac:dyDescent="0.2">
@@ -774,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -785,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -796,10 +793,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -807,10 +804,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="204" x14ac:dyDescent="0.2">
@@ -818,10 +815,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -829,10 +826,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/faq_kb.xlsx
+++ b/sheets/faq_kb.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au693621_uni_au_dk/Documents/Documents/Dokumentationsprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70EF9CE-AF76-2646-BE19-162584662BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{C2B4D0CD-9E49-4160-A77D-CABAE4F973C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{621D8DAA-C099-4821-B02A-A700CE2DD7D5}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="27680" windowHeight="16840" xr2:uid="{4F619692-AAC7-B641-BADE-33997FBE73EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F619692-AAC7-B641-BADE-33997FBE73EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>How do I apply online for admission to Aarhus University?</t>
   </si>
@@ -55,9 +56,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>When can I start applying on www.optagelse.dkWhen can I start applying on www.optagelse.dk?</t>
-  </si>
-  <si>
     <t>The application portal opens on 1 February each year.
 Please note that all applications must be submitted online via www.optagelse.dk.</t>
   </si>
@@ -71,17 +69,6 @@
   </si>
   <si>
     <t>How do I apply without a Danish MitID?</t>
-  </si>
-  <si>
-    <t>If you apply without a MitID, you will receive a link to a signature page for each approved programme you apply for.
-To meet the deadline, this signature page must be:
-Printed,
-Dated,
-Signed, and
-Received by Aarhus University no later than 15 March at 12:00 noon in the application year.
-The date of receipt of the signed page — not the date of online approval — determines whether your application meets the deadline.
-Signature pages received after 15 March at 12:00 noon will be rejected.
-The printed, signed, and dated page must be submitted through Aarhus University’s web form.</t>
   </si>
   <si>
     <t>What information and documents do I need to include with my application?</t>
@@ -234,6 +221,165 @@
 A-level ≈ Danish A-level
 Advanced Placement (AP) Tests issued by the College Board
 In Denmark, you can also request an individual assessment of your qualifications at a VUC (Adult Education Centre).</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Application process</t>
+  </si>
+  <si>
+    <t>Short_answer</t>
+  </si>
+  <si>
+    <t>You apply online via optagelse.dk.</t>
+  </si>
+  <si>
+    <t>Full _Answer</t>
+  </si>
+  <si>
+    <t>All applicants must apply online via www.optagelse.dk. You log in using MitID or manually, upload your required documents, and submit before the deadline. Your application will be processed digitally.</t>
+  </si>
+  <si>
+    <t>Deadlines</t>
+  </si>
+  <si>
+    <t>The application portal opens on 1 February each year.</t>
+  </si>
+  <si>
+    <t>When can I start applying on www.optagelse.dk</t>
+  </si>
+  <si>
+    <t>The application portal opens on 1 February each year for submission of applications.</t>
+  </si>
+  <si>
+    <t>You log in with MitID on optagelse.dk</t>
+  </si>
+  <si>
+    <t>If you apply using MitID, your digital application is validated electronically and you can upload documents directly.</t>
+  </si>
+  <si>
+    <t>If you apply without a MitID, you will receive a link to a signature page for each approved programme you apply for.
+To meet the deadline, this signature page must be:
+Printed, Dated, Signed, and Received by Aarhus University no later than 15 March at 12:00 noon in the application year.
+The date of receipt of the signed page — not the date of online approval — determines whether your application meets the deadline.
+Signature pages received after 15 March at 12:00 noon will be rejected.
+The printed, signed, and dated page must be submitted through Aarhus University’s web form.</t>
+  </si>
+  <si>
+    <t>If you apply without MitID, you’ll receive a signature page for each approved application. You must print, date, and sign it, and Aarhus University must receive it by 15 March at 12:00 noon. The actual receipt date—not the online approval—determines whether you meet the deadline. Pages received after the deadline will be rejected. The signed page must be submitted via the university’s web form.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>When applying, you must provide: Name, address, exam certificates, grade transcripts, and any other documentation required to assess eligibility.</t>
+  </si>
+  <si>
+    <t>Admission requirements</t>
+  </si>
+  <si>
+    <t>A qualifying entry examination is a completed secondary school credential (and in some cases supplemented by university/college studies) that meets Aarhus University’s admission requirements and proves you are academically eligible to apply. It must be completed before 5 July (unless you are a paying applicant), and it never expires. Examples include Danish exams (stx, hf, hhx, htx), IB, EB, (I)GCSE, AS-, and A-levels, many European and international equivalents, and in some cases a high school diploma plus futher studies.</t>
+  </si>
+  <si>
+    <t>A qualifying entry examination is a completed secondary education credential (sometimes with additional studies) that meets Aarhus University’s admission requirements. It must be finished before 5 July and never expires. Examples include Danish exams, IB, EB,(I)GCSE, AS-, and A-levels, and similar international equivalents.</t>
+  </si>
+  <si>
+    <t>You must have specific upper secondary subjects at required levels.</t>
+  </si>
+  <si>
+    <t>In addition to a qualifying examination, you must have certain upper secondary subjects at specific levels.
+These can be part of your qualifying exam or added through supplementary courses</t>
+  </si>
+  <si>
+    <t>Yes, each required subject must be individually passed.</t>
+  </si>
+  <si>
+    <t>Yes. You must have received a passing grade in each required upper secondary subject level.
+This applies even if the subject was part of your qualifying examination. Grades cannot be rounded up to meet the pass requirement</t>
+  </si>
+  <si>
+    <t>Yes, you may supplement your qualifications</t>
+  </si>
+  <si>
+    <t>Yes. If you do not meet the specific admission requirements, you can supplement your exam.
+In Denmark, this is done through Upper Secondary School Supplementing (GS) (available only in Danish).
+Outside Denmark, Aarhus University generally recognizes:
+International General Certificate of Education (IGCE) from accredited institutions such as Pearson or Cambridge
+AS-level ≈ Danish B-level
+A-level ≈ Danish A-level
+Advanced Placement (AP) Tests issued by the College Board
+In Denmark, you can also request an individual assessment of your qualifications at a VUC (Adult Education Centre)</t>
+  </si>
+  <si>
+    <t>They are compared to Danish upper secondary levels based on hours and equivalence</t>
+  </si>
+  <si>
+    <t>Subject levels from international entry examinations are compared to those in the Danish upper secondary school system.
+This comparison is partly based on the number of teaching hours you have completed in each subject.
+You must therefore submit documentation from your school stating how many 60-minute lessons you received in relevant subjects over the last three years of upper secondary school.
+Please also remember to meet Aarhus University’s specific language requirements for all Bachelor’s programme</t>
+  </si>
+  <si>
+    <t>It is a final verification of your application</t>
+  </si>
+  <si>
+    <t>The signature page is the final step to verify you as an applicant.
+Your application is not complete until Aarhus University receives your signed signature page through the university’s web form.
+You must submit one signature page for each programme you apply for at Aarhus University.
+Be sure to check the deadline for submitting these pages</t>
+  </si>
+  <si>
+    <t>No, MitID login replaces the signature page.</t>
+  </si>
+  <si>
+    <t>No.
+If you complete your application using MitID, you do not need a signature page, because you are already verified through your MitID login. Applicants using MitID do not send in additional signature documentation</t>
+  </si>
+  <si>
+    <t>System explanation</t>
+  </si>
+  <si>
+    <t>It uses a shared national system for allocating study places.</t>
+  </si>
+  <si>
+    <t>Aarhus University and all other higher education institutions in Denmark use a shared application system called the Coordinated Enrolment System (KOT).
+KOT allows you to:
+Apply for up to eight different Bachelor’s degree programmes
+Be admitted to the highest-priority programme for which you qualify
+Be admitted to only one of the programmes you apply for</t>
+  </si>
+  <si>
+    <t>Two admission routes based on different selection criteria</t>
+  </si>
+  <si>
+    <t>Quota 1 and quota 2 is how we allocate student places in Denmark.
+Quota 1 admissions are allocated according to the grade point average of your upper secondary education.
+Quota 2 admissions are allocated according to various selection criteria.
+Even though the two quotas have different selection criteria, they are equally good</t>
+  </si>
+  <si>
+    <t>Quota 1 and 2</t>
+  </si>
+  <si>
+    <t>No, you are assessed automatically.</t>
+  </si>
+  <si>
+    <t>No, the quota does not affect your studies.</t>
+  </si>
+  <si>
+    <t>No. Quota 1 and quota 2 is solely a part of the admission process and has no effect on your studies after you have been admitted. If you are offered a student place you do not know whether your application has been assessed in quota 1 or quota 2</t>
+  </si>
+  <si>
+    <t>Based solely on GPA from your first qualifying examination.</t>
+  </si>
+  <si>
+    <t>The assessment in quota 1 is based on the first completed qualifying examination and the principle of descending order of grade point average (GPA).
+This means that applicants with the highest GPA will be admitted until there are no more available student places. The last admitted applicant’s GPA is the GPA cut-off for each programme. This can differ from year to year depending on number of student places and the qualifications of the applicants. You can find the GPA cut-off on the programmes’ websites. The GPA cut-off is first known when the admission process is completed on 28 July.
+You cannot improve the GPA from your first qualifying examination. However, you are welcome to take supplementary courses in order to fulfil the admission requirements. The grades from your supplementary courses will not be used in the quota 1 assessment</t>
+  </si>
+  <si>
+    <t>It is an overall assessment of relevant GPA and qualifications.</t>
   </si>
 </sst>
 </file>
@@ -269,13 +415,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -611,228 +767,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDB85C5-259A-7A4B-86C9-EC58FB01D022}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="289" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="378" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA88F12A-4D41-4862-9FBD-511146BC1E40}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="3"/>
+    <col min="2" max="2" width="86.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{61fd1d36-fecb-47ca-b7d7-d0df0370a198}" enabled="0" method="" siteId="{61fd1d36-fecb-47ca-b7d7-d0df0370a198}" removed="1"/>
+</clbl:labelList>
 </file>